--- a/forecast_summary_B0CH92B3S2.xlsx
+++ b/forecast_summary_B0CH92B3S2.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="n">
         <v>106.2000490697947</v>
       </c>
       <c r="D2" t="n">
-        <v>139.6154076949186</v>
+        <v>138.806680883418</v>
       </c>
       <c r="E2" t="n">
         <v>57</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>115.0926217834829</v>
       </c>
       <c r="D3" t="n">
-        <v>148.323196262541</v>
+        <v>147.8903009188395</v>
       </c>
       <c r="E3" t="n">
         <v>56</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>91.98425529596732</v>
       </c>
       <c r="D4" t="n">
-        <v>125.2831545516061</v>
+        <v>125.0383633792146</v>
       </c>
       <c r="E4" t="n">
         <v>59</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>50.65550549091262</v>
       </c>
       <c r="D5" t="n">
-        <v>83.83332545285866</v>
+        <v>84.59143956213352</v>
       </c>
       <c r="E5" t="n">
         <v>47</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>27.22385272764875</v>
       </c>
       <c r="D6" t="n">
-        <v>58.68436068321375</v>
+        <v>59.33861487416679</v>
       </c>
       <c r="E6" t="n">
         <v>47</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>45.68370455303256</v>
       </c>
       <c r="D7" t="n">
-        <v>77.03686276257126</v>
+        <v>76.97389736918772</v>
       </c>
       <c r="E7" t="n">
         <v>47</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>93.37321137820487</v>
       </c>
       <c r="D8" t="n">
-        <v>125.359258100548</v>
+        <v>127.1370995163564</v>
       </c>
       <c r="E8" t="n">
         <v>49</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>134.5085508111358</v>
       </c>
       <c r="D9" t="n">
-        <v>167.34018373496</v>
+        <v>167.6355632984972</v>
       </c>
       <c r="E9" t="n">
         <v>49</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>146.1878271386634</v>
       </c>
       <c r="D10" t="n">
-        <v>179.3914094765766</v>
+        <v>179.9536939272473</v>
       </c>
       <c r="E10" t="n">
         <v>48</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>136.5633179521529</v>
       </c>
       <c r="D11" t="n">
-        <v>170.3610182350631</v>
+        <v>169.9668078943079</v>
       </c>
       <c r="E11" t="n">
         <v>48</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>128.4402069560534</v>
       </c>
       <c r="D12" t="n">
-        <v>161.1629687812014</v>
+        <v>163.114069457947</v>
       </c>
       <c r="E12" t="n">
         <v>51</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>132.4030080002688</v>
       </c>
       <c r="D13" t="n">
-        <v>164.3114762904485</v>
+        <v>168.1818263874447</v>
       </c>
       <c r="E13" t="n">
         <v>51</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -914,13 +955,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" t="n">
         <v>141.2704679617961</v>
       </c>
       <c r="D14" t="n">
-        <v>173.6989387891331</v>
+        <v>172.3021407057208</v>
       </c>
       <c r="E14" t="n">
         <v>50</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>146.3969090996275</v>
       </c>
       <c r="D15" t="n">
-        <v>178.4326851089461</v>
+        <v>178.8962135688543</v>
       </c>
       <c r="E15" t="n">
         <v>52</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>149.4923716078686</v>
       </c>
       <c r="D16" t="n">
-        <v>180.8184127549626</v>
+        <v>182.8605065855474</v>
       </c>
       <c r="E16" t="n">
         <v>52</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>155.067765295263</v>
       </c>
       <c r="D17" t="n">
-        <v>185.4778779986615</v>
+        <v>186.7735050304266</v>
       </c>
       <c r="E17" t="n">
         <v>51</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>158.9292262911997</v>
       </c>
       <c r="D18" t="n">
-        <v>191.5292688024947</v>
+        <v>190.92031424513</v>
       </c>
       <c r="E18" t="n">
         <v>49</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>153.421219375971</v>
       </c>
       <c r="D19" t="n">
-        <v>185.9179038769006</v>
+        <v>185.8507086920144</v>
       </c>
       <c r="E19" t="n">
         <v>48</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>143.1254284763073</v>
       </c>
       <c r="D20" t="n">
-        <v>174.6609107219253</v>
+        <v>175.7546497473255</v>
       </c>
       <c r="E20" t="n">
         <v>49</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>145.196675036351</v>
       </c>
       <c r="D21" t="n">
-        <v>176.5447132672402</v>
+        <v>177.2007545599503</v>
       </c>
       <c r="E21" t="n">
         <v>48</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B650M D3HP</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1855</t>
+          <t>1853</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>690</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>376</t>
         </is>
       </c>
     </row>
